--- a/data/zenodo_ivan/trade/CHE_trd_gasoline.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_gasoline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A377E-0605-9E4E-849D-00932E275BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB27623-59BA-914A-88BD-D40C0A24118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="59">
   <si>
     <t>Name:</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>co2_factor</t>
-  </si>
-  <si>
-    <t>max_export_share</t>
-  </si>
-  <si>
-    <t>max_import_share</t>
   </si>
   <si>
     <t>actual_export</t>
@@ -646,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -733,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -750,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -764,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -778,10 +772,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -792,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -806,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
@@ -820,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
@@ -832,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -846,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -855,13 +849,13 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -869,13 +863,22 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -883,13 +886,34 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>1990</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -897,22 +921,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>1991</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -920,34 +956,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -955,34 +991,34 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -990,34 +1026,34 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G19">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1025,34 +1061,34 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G20">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1060,34 +1096,34 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1095,34 +1131,34 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1130,34 +1166,34 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1165,34 +1201,34 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1200,34 +1236,34 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1235,34 +1271,34 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1270,34 +1306,34 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G27">
         <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1305,34 +1341,34 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1340,34 +1376,34 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G29">
         <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1375,34 +1411,34 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1410,34 +1446,34 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G31">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1445,34 +1481,34 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1480,34 +1516,34 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,34 +1551,34 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1550,34 +1586,34 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1585,34 +1621,34 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1620,34 +1656,34 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1655,34 +1691,34 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G38">
-        <v>220</v>
+        <v>748</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1690,34 +1726,34 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G39">
-        <v>748</v>
+        <v>528</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1725,34 +1761,34 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G40">
-        <v>748</v>
+        <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1760,34 +1796,34 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G41">
-        <v>528</v>
+        <v>440</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1795,34 +1831,34 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G42">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1830,34 +1866,34 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G43">
-        <v>440</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1865,34 +1901,19 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44">
-        <v>2017</v>
-      </c>
-      <c r="G44">
-        <v>88</v>
+        <v>2019</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1900,34 +1921,34 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G45">
-        <v>73</v>
+        <v>131340</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1935,19 +1956,34 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>1991</v>
+      </c>
+      <c r="G46">
+        <v>122980</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1955,34 +1991,34 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G47">
-        <v>131340</v>
+        <v>128700</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1990,34 +2026,34 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G48">
-        <v>122980</v>
+        <v>115588</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2025,34 +2061,34 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G49">
-        <v>128700</v>
+        <v>114312</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2060,34 +2096,34 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G50">
-        <v>115588</v>
+        <v>111716</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2095,34 +2131,34 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G51">
-        <v>114312</v>
+        <v>116776</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2130,34 +2166,34 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G52">
-        <v>111716</v>
+        <v>113740</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2165,34 +2201,34 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G53">
-        <v>116776</v>
+        <v>115148</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2200,34 +2236,34 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G54">
-        <v>113740</v>
+        <v>115984</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2235,34 +2271,34 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G55">
-        <v>115148</v>
+        <v>119724</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2270,34 +2306,34 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G56">
-        <v>115984</v>
+        <v>118624</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2305,34 +2341,34 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G57">
-        <v>119724</v>
+        <v>116248</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2340,34 +2376,34 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G58">
-        <v>118624</v>
+        <v>118316</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2375,34 +2411,34 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G59">
-        <v>116248</v>
+        <v>105116</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2410,34 +2446,34 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G60">
-        <v>118316</v>
+        <v>102344</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2445,34 +2481,34 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G61">
-        <v>105116</v>
+        <v>88132</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2480,34 +2516,34 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G62">
-        <v>102344</v>
+        <v>93940</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2515,34 +2551,34 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G63">
-        <v>88132</v>
+        <v>85668</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2550,34 +2586,34 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G64">
-        <v>93940</v>
+        <v>82412</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2585,34 +2621,34 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G65">
-        <v>85668</v>
+        <v>81400</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2620,34 +2656,34 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G66">
-        <v>82412</v>
+        <v>75504</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2655,34 +2691,34 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G67">
-        <v>81400</v>
+        <v>83996</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2690,34 +2726,34 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G68">
-        <v>75504</v>
+        <v>61688</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2725,34 +2761,34 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G69">
-        <v>83996</v>
+        <v>54868</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2760,34 +2796,34 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G70">
-        <v>61688</v>
+        <v>72380</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2795,34 +2831,34 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G71">
-        <v>54868</v>
+        <v>75460</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,34 +2866,34 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G72">
-        <v>72380</v>
+        <v>72072</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2865,34 +2901,34 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G73">
-        <v>75460</v>
+        <v>69770.97</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2900,69 +2936,37 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
       </c>
       <c r="E74">
-        <v>2017</v>
-      </c>
-      <c r="G74">
-        <v>72072</v>
+        <v>2019</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
-      </c>
-      <c r="I74" t="s">
-        <v>46</v>
-      </c>
-      <c r="J74" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L74" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75">
-        <v>2018</v>
-      </c>
-      <c r="G75">
-        <v>69770.97</v>
-      </c>
-      <c r="H75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" t="s">
-        <v>46</v>
-      </c>
-      <c r="J75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L75" t="s">
-        <v>41</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2970,37 +2974,33 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
       </c>
       <c r="E76">
-        <v>2019</v>
-      </c>
-      <c r="H76" t="s">
-        <v>31</v>
-      </c>
-      <c r="K76" s="2"/>
+        <v>1991</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3008,16 +3008,16 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3025,16 +3025,16 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3042,16 +3042,31 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>1995</v>
+      </c>
+      <c r="G80">
+        <v>1.02</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" t="s">
         <v>45</v>
-      </c>
-      <c r="C80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80">
-        <v>1993</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3059,16 +3074,16 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3076,31 +3091,16 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1995</v>
-      </c>
-      <c r="G82">
-        <v>1.02</v>
-      </c>
-      <c r="H82" t="s">
-        <v>50</v>
-      </c>
-      <c r="J82" t="s">
-        <v>48</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L82" t="s">
-        <v>47</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3108,16 +3108,31 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>1998</v>
+      </c>
+      <c r="G83">
+        <v>0.86</v>
+      </c>
+      <c r="H83" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L83" t="s">
         <v>45</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83">
-        <v>1996</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3125,16 +3140,16 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3142,31 +3157,31 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>2000</v>
+      </c>
+      <c r="G85">
+        <v>0.78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L85" t="s">
         <v>45</v>
-      </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85">
-        <v>1998</v>
-      </c>
-      <c r="G85">
-        <v>0.86</v>
-      </c>
-      <c r="H85" t="s">
-        <v>51</v>
-      </c>
-      <c r="J85" t="s">
-        <v>48</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L85" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3174,16 +3189,16 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3191,31 +3206,31 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>2002</v>
+      </c>
+      <c r="G87">
+        <v>0.89</v>
+      </c>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L87" t="s">
         <v>45</v>
-      </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87">
-        <v>2000</v>
-      </c>
-      <c r="G87">
-        <v>0.78</v>
-      </c>
-      <c r="H87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s">
-        <v>48</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L87" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3223,16 +3238,16 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,31 +3255,31 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>2004</v>
+      </c>
+      <c r="G89">
+        <v>1.29</v>
+      </c>
+      <c r="H89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L89" t="s">
         <v>45</v>
-      </c>
-      <c r="C89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89">
-        <v>2002</v>
-      </c>
-      <c r="G89">
-        <v>0.89</v>
-      </c>
-      <c r="H89" t="s">
-        <v>53</v>
-      </c>
-      <c r="J89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L89" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3272,16 +3287,16 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3289,31 +3304,31 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>2006</v>
+      </c>
+      <c r="G91">
+        <v>1.27</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L91" t="s">
         <v>45</v>
-      </c>
-      <c r="C91" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91">
-        <v>2004</v>
-      </c>
-      <c r="G91">
-        <v>1.29</v>
-      </c>
-      <c r="H91" t="s">
-        <v>54</v>
-      </c>
-      <c r="J91" t="s">
-        <v>48</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L91" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3321,16 +3336,16 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3338,31 +3353,31 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>2008</v>
+      </c>
+      <c r="G93">
+        <v>1.3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L93" t="s">
         <v>45</v>
-      </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93">
-        <v>2006</v>
-      </c>
-      <c r="G93">
-        <v>1.27</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J93" t="s">
-        <v>48</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L93" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3370,16 +3385,16 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3387,31 +3402,31 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>2010</v>
+      </c>
+      <c r="G95">
+        <v>1.66</v>
+      </c>
+      <c r="H95" t="s">
+        <v>55</v>
+      </c>
+      <c r="J95" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L95" t="s">
         <v>45</v>
-      </c>
-      <c r="C95" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95">
-        <v>2008</v>
-      </c>
-      <c r="G95">
-        <v>1.3</v>
-      </c>
-      <c r="H95" t="s">
-        <v>56</v>
-      </c>
-      <c r="J95" t="s">
-        <v>48</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L95" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3419,16 +3434,16 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3436,31 +3451,31 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>2012</v>
+      </c>
+      <c r="G97">
+        <v>1.88</v>
+      </c>
+      <c r="H97" t="s">
+        <v>56</v>
+      </c>
+      <c r="J97" t="s">
+        <v>46</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L97" t="s">
         <v>45</v>
-      </c>
-      <c r="C97" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97">
-        <v>2010</v>
-      </c>
-      <c r="G97">
-        <v>1.66</v>
-      </c>
-      <c r="H97" t="s">
-        <v>57</v>
-      </c>
-      <c r="J97" t="s">
-        <v>48</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L97" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3468,16 +3483,16 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3485,31 +3500,31 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>2014</v>
+      </c>
+      <c r="G99">
+        <v>1.74</v>
+      </c>
+      <c r="H99" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L99" t="s">
         <v>45</v>
-      </c>
-      <c r="C99" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99">
-        <v>2012</v>
-      </c>
-      <c r="G99">
-        <v>1.88</v>
-      </c>
-      <c r="H99" t="s">
-        <v>58</v>
-      </c>
-      <c r="J99" t="s">
-        <v>48</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L99" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3517,16 +3532,16 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3534,31 +3549,31 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>2016</v>
+      </c>
+      <c r="G101">
+        <v>1.45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J101" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L101" t="s">
         <v>45</v>
-      </c>
-      <c r="C101" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101">
-        <v>2014</v>
-      </c>
-      <c r="G101">
-        <v>1.74</v>
-      </c>
-      <c r="H101" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" t="s">
-        <v>48</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L101" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3566,16 +3581,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3583,31 +3598,16 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="E103">
-        <v>2016</v>
-      </c>
-      <c r="G103">
-        <v>1.45</v>
-      </c>
-      <c r="H103" t="s">
-        <v>60</v>
-      </c>
-      <c r="J103" t="s">
-        <v>48</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L103" t="s">
-        <v>47</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3615,67 +3615,33 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
       </c>
       <c r="E104">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L305" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K82" r:id="rId1" xr:uid="{08964E28-2563-7E43-B165-6E23A840428B}"/>
-    <hyperlink ref="K85" r:id="rId2" xr:uid="{EB091DB2-6CDF-E443-A1B2-0AF08996AF72}"/>
-    <hyperlink ref="K87" r:id="rId3" xr:uid="{4CC4C68E-C22B-DF4D-96A0-E32DE1A182DD}"/>
-    <hyperlink ref="K89" r:id="rId4" xr:uid="{E44AE788-A36E-604F-B0A3-DFD5B4D8BB6E}"/>
-    <hyperlink ref="K91" r:id="rId5" xr:uid="{945255C5-8609-E847-ACD2-5B30781C03AF}"/>
-    <hyperlink ref="K93" r:id="rId6" xr:uid="{BF6898A5-61C2-644F-A731-7DC00E043C54}"/>
-    <hyperlink ref="K95" r:id="rId7" xr:uid="{F2F4EE29-85CF-B647-824A-A69C0D2C5370}"/>
-    <hyperlink ref="K97" r:id="rId8" xr:uid="{B454BB5C-EB56-3B49-A303-231AC872D0FC}"/>
-    <hyperlink ref="K99" r:id="rId9" xr:uid="{9C6CCE03-A7EF-9F44-A612-66E6ECD21EA1}"/>
-    <hyperlink ref="K101" r:id="rId10" xr:uid="{071AD89F-117A-C94A-8836-9639B8D15562}"/>
-    <hyperlink ref="K103" r:id="rId11" xr:uid="{3F998152-456D-2142-94AE-74F27A2A1F8D}"/>
+    <hyperlink ref="K80" r:id="rId1" xr:uid="{08964E28-2563-7E43-B165-6E23A840428B}"/>
+    <hyperlink ref="K83" r:id="rId2" xr:uid="{EB091DB2-6CDF-E443-A1B2-0AF08996AF72}"/>
+    <hyperlink ref="K85" r:id="rId3" xr:uid="{4CC4C68E-C22B-DF4D-96A0-E32DE1A182DD}"/>
+    <hyperlink ref="K87" r:id="rId4" xr:uid="{E44AE788-A36E-604F-B0A3-DFD5B4D8BB6E}"/>
+    <hyperlink ref="K89" r:id="rId5" xr:uid="{945255C5-8609-E847-ACD2-5B30781C03AF}"/>
+    <hyperlink ref="K91" r:id="rId6" xr:uid="{BF6898A5-61C2-644F-A731-7DC00E043C54}"/>
+    <hyperlink ref="K93" r:id="rId7" xr:uid="{F2F4EE29-85CF-B647-824A-A69C0D2C5370}"/>
+    <hyperlink ref="K95" r:id="rId8" xr:uid="{B454BB5C-EB56-3B49-A303-231AC872D0FC}"/>
+    <hyperlink ref="K97" r:id="rId9" xr:uid="{9C6CCE03-A7EF-9F44-A612-66E6ECD21EA1}"/>
+    <hyperlink ref="K99" r:id="rId10" xr:uid="{071AD89F-117A-C94A-8836-9639B8D15562}"/>
+    <hyperlink ref="K101" r:id="rId11" xr:uid="{3F998152-456D-2142-94AE-74F27A2A1F8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_gasoline.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_gasoline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB27623-59BA-914A-88BD-D40C0A24118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B043BA4-6603-9342-B3D2-324125ECC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="61">
   <si>
     <t>Name:</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>USD2016/litre_gasoline</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -640,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="A14:XFD15"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -803,10 +809,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -817,23 +829,11 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -843,19 +843,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
         <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -866,20 +869,20 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
       </c>
       <c r="J14" t="s">
         <v>30</v>
       </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -888,32 +891,20 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>1990</v>
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -930,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +956,10 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G17">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -1000,10 +991,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1035,10 +1026,10 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1070,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1105,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1140,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1175,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1210,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1245,10 +1236,10 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G25">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -1280,10 +1271,10 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -1315,10 +1306,10 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G27">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -1350,10 +1341,10 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -1385,10 +1376,10 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G29">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -1420,10 +1411,10 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1455,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1490,7 +1481,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1525,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1560,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1595,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1630,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G36">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1665,10 +1656,10 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G37">
-        <v>748</v>
+        <v>220</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1700,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G38">
         <v>748</v>
@@ -1735,10 +1726,10 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G39">
-        <v>528</v>
+        <v>748</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -1770,10 +1761,10 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G40">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -1805,10 +1796,10 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G41">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -1840,10 +1831,10 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G42">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -1875,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G43">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -1910,10 +1901,25 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G44">
+        <v>73</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1924,31 +1930,16 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>1990</v>
-      </c>
-      <c r="G45">
-        <v>131340</v>
+        <v>2019</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L45" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1965,10 +1956,10 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G46">
-        <v>122980</v>
+        <v>131340</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -2000,10 +1991,10 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G47">
-        <v>128700</v>
+        <v>122980</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -2035,10 +2026,10 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G48">
-        <v>115588</v>
+        <v>128700</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -2070,10 +2061,10 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G49">
-        <v>114312</v>
+        <v>115588</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -2105,10 +2096,10 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G50">
-        <v>111716</v>
+        <v>114312</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -2140,10 +2131,10 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G51">
-        <v>116776</v>
+        <v>111716</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -2175,10 +2166,10 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G52">
-        <v>113740</v>
+        <v>116776</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -2210,10 +2201,10 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G53">
-        <v>115148</v>
+        <v>113740</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -2245,10 +2236,10 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G54">
-        <v>115984</v>
+        <v>115148</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -2280,10 +2271,10 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G55">
-        <v>119724</v>
+        <v>115984</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -2315,10 +2306,10 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G56">
-        <v>118624</v>
+        <v>119724</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -2350,10 +2341,10 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G57">
-        <v>116248</v>
+        <v>118624</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -2385,10 +2376,10 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G58">
-        <v>118316</v>
+        <v>116248</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -2420,10 +2411,10 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G59">
-        <v>105116</v>
+        <v>118316</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -2455,10 +2446,10 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>102344</v>
+        <v>105116</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -2490,10 +2481,10 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G61">
-        <v>88132</v>
+        <v>102344</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -2525,10 +2516,10 @@
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G62">
-        <v>93940</v>
+        <v>88132</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -2560,10 +2551,10 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G63">
-        <v>85668</v>
+        <v>93940</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -2595,10 +2586,10 @@
         <v>17</v>
       </c>
       <c r="E64">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G64">
-        <v>82412</v>
+        <v>85668</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
@@ -2630,10 +2621,10 @@
         <v>17</v>
       </c>
       <c r="E65">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G65">
-        <v>81400</v>
+        <v>82412</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -2665,10 +2656,10 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G66">
-        <v>75504</v>
+        <v>81400</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -2700,10 +2691,10 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G67">
-        <v>83996</v>
+        <v>75504</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -2735,10 +2726,10 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G68">
-        <v>61688</v>
+        <v>83996</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -2770,10 +2761,10 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G69">
-        <v>54868</v>
+        <v>61688</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -2805,10 +2796,10 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G70">
-        <v>72380</v>
+        <v>54868</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -2840,10 +2831,10 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G71">
-        <v>75460</v>
+        <v>72380</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -2875,10 +2866,10 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G72">
-        <v>72072</v>
+        <v>75460</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -2910,10 +2901,10 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G73">
-        <v>69770.97</v>
+        <v>72072</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -2945,12 +2936,26 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G74">
+        <v>69770.97</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="2"/>
+      <c r="I74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L74" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2960,14 +2965,18 @@
         <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75">
-        <v>1990</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -2983,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="E76">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3000,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="E77">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3017,7 +3026,7 @@
         <v>17</v>
       </c>
       <c r="E78">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3034,7 +3043,7 @@
         <v>17</v>
       </c>
       <c r="E79">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3051,22 +3060,7 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>1995</v>
-      </c>
-      <c r="G80">
-        <v>1.02</v>
-      </c>
-      <c r="H80" t="s">
-        <v>48</v>
-      </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L80" t="s">
-        <v>45</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3083,7 +3077,22 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>1996</v>
+        <v>1995</v>
+      </c>
+      <c r="G81">
+        <v>1.02</v>
+      </c>
+      <c r="H81" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3100,7 +3109,7 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3117,22 +3126,7 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>1998</v>
-      </c>
-      <c r="G83">
-        <v>0.86</v>
-      </c>
-      <c r="H83" t="s">
-        <v>49</v>
-      </c>
-      <c r="J83" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L83" t="s">
-        <v>45</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3149,7 +3143,22 @@
         <v>17</v>
       </c>
       <c r="E84">
-        <v>1999</v>
+        <v>1998</v>
+      </c>
+      <c r="G84">
+        <v>0.86</v>
+      </c>
+      <c r="H84" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L84" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3166,22 +3175,7 @@
         <v>17</v>
       </c>
       <c r="E85">
-        <v>2000</v>
-      </c>
-      <c r="G85">
-        <v>0.78</v>
-      </c>
-      <c r="H85" t="s">
-        <v>50</v>
-      </c>
-      <c r="J85" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L85" t="s">
-        <v>45</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3198,7 +3192,22 @@
         <v>17</v>
       </c>
       <c r="E86">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="G86">
+        <v>0.78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>50</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3215,22 +3224,7 @@
         <v>17</v>
       </c>
       <c r="E87">
-        <v>2002</v>
-      </c>
-      <c r="G87">
-        <v>0.89</v>
-      </c>
-      <c r="H87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J87" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L87" t="s">
-        <v>45</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3247,7 +3241,22 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <v>2003</v>
+        <v>2002</v>
+      </c>
+      <c r="G88">
+        <v>0.89</v>
+      </c>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="J88" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L88" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3264,22 +3273,7 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>2004</v>
-      </c>
-      <c r="G89">
-        <v>1.29</v>
-      </c>
-      <c r="H89" t="s">
-        <v>52</v>
-      </c>
-      <c r="J89" t="s">
-        <v>46</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L89" t="s">
-        <v>45</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3296,7 +3290,22 @@
         <v>17</v>
       </c>
       <c r="E90">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="G90">
+        <v>1.29</v>
+      </c>
+      <c r="H90" t="s">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3313,22 +3322,7 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>2006</v>
-      </c>
-      <c r="G91">
-        <v>1.27</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J91" t="s">
-        <v>46</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L91" t="s">
-        <v>45</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3345,7 +3339,22 @@
         <v>17</v>
       </c>
       <c r="E92">
-        <v>2007</v>
+        <v>2006</v>
+      </c>
+      <c r="G92">
+        <v>1.27</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3362,22 +3371,7 @@
         <v>17</v>
       </c>
       <c r="E93">
-        <v>2008</v>
-      </c>
-      <c r="G93">
-        <v>1.3</v>
-      </c>
-      <c r="H93" t="s">
-        <v>54</v>
-      </c>
-      <c r="J93" t="s">
-        <v>46</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L93" t="s">
-        <v>45</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3394,7 +3388,22 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>2009</v>
+        <v>2008</v>
+      </c>
+      <c r="G94">
+        <v>1.3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3411,22 +3420,7 @@
         <v>17</v>
       </c>
       <c r="E95">
-        <v>2010</v>
-      </c>
-      <c r="G95">
-        <v>1.66</v>
-      </c>
-      <c r="H95" t="s">
-        <v>55</v>
-      </c>
-      <c r="J95" t="s">
-        <v>46</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L95" t="s">
-        <v>45</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3443,7 +3437,22 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G96">
+        <v>1.66</v>
+      </c>
+      <c r="H96" t="s">
+        <v>55</v>
+      </c>
+      <c r="J96" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L96" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3460,22 +3469,7 @@
         <v>17</v>
       </c>
       <c r="E97">
-        <v>2012</v>
-      </c>
-      <c r="G97">
-        <v>1.88</v>
-      </c>
-      <c r="H97" t="s">
-        <v>56</v>
-      </c>
-      <c r="J97" t="s">
-        <v>46</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L97" t="s">
-        <v>45</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3492,7 +3486,22 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="G98">
+        <v>1.88</v>
+      </c>
+      <c r="H98" t="s">
+        <v>56</v>
+      </c>
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L98" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3509,22 +3518,7 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>2014</v>
-      </c>
-      <c r="G99">
-        <v>1.74</v>
-      </c>
-      <c r="H99" t="s">
-        <v>57</v>
-      </c>
-      <c r="J99" t="s">
-        <v>46</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L99" t="s">
-        <v>45</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3541,7 +3535,22 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G100">
+        <v>1.74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J100" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L100" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3558,22 +3567,7 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>2016</v>
-      </c>
-      <c r="G101">
-        <v>1.45</v>
-      </c>
-      <c r="H101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J101" t="s">
-        <v>46</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L101" t="s">
-        <v>45</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3590,7 +3584,22 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G102">
+        <v>1.45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L102" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3607,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3624,24 +3633,41 @@
         <v>17</v>
       </c>
       <c r="E104">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K80" r:id="rId1" xr:uid="{08964E28-2563-7E43-B165-6E23A840428B}"/>
-    <hyperlink ref="K83" r:id="rId2" xr:uid="{EB091DB2-6CDF-E443-A1B2-0AF08996AF72}"/>
-    <hyperlink ref="K85" r:id="rId3" xr:uid="{4CC4C68E-C22B-DF4D-96A0-E32DE1A182DD}"/>
-    <hyperlink ref="K87" r:id="rId4" xr:uid="{E44AE788-A36E-604F-B0A3-DFD5B4D8BB6E}"/>
-    <hyperlink ref="K89" r:id="rId5" xr:uid="{945255C5-8609-E847-ACD2-5B30781C03AF}"/>
-    <hyperlink ref="K91" r:id="rId6" xr:uid="{BF6898A5-61C2-644F-A731-7DC00E043C54}"/>
-    <hyperlink ref="K93" r:id="rId7" xr:uid="{F2F4EE29-85CF-B647-824A-A69C0D2C5370}"/>
-    <hyperlink ref="K95" r:id="rId8" xr:uid="{B454BB5C-EB56-3B49-A303-231AC872D0FC}"/>
-    <hyperlink ref="K97" r:id="rId9" xr:uid="{9C6CCE03-A7EF-9F44-A612-66E6ECD21EA1}"/>
-    <hyperlink ref="K99" r:id="rId10" xr:uid="{071AD89F-117A-C94A-8836-9639B8D15562}"/>
-    <hyperlink ref="K101" r:id="rId11" xr:uid="{3F998152-456D-2142-94AE-74F27A2A1F8D}"/>
+    <hyperlink ref="K81" r:id="rId1" xr:uid="{08964E28-2563-7E43-B165-6E23A840428B}"/>
+    <hyperlink ref="K84" r:id="rId2" xr:uid="{EB091DB2-6CDF-E443-A1B2-0AF08996AF72}"/>
+    <hyperlink ref="K86" r:id="rId3" xr:uid="{4CC4C68E-C22B-DF4D-96A0-E32DE1A182DD}"/>
+    <hyperlink ref="K88" r:id="rId4" xr:uid="{E44AE788-A36E-604F-B0A3-DFD5B4D8BB6E}"/>
+    <hyperlink ref="K90" r:id="rId5" xr:uid="{945255C5-8609-E847-ACD2-5B30781C03AF}"/>
+    <hyperlink ref="K92" r:id="rId6" xr:uid="{BF6898A5-61C2-644F-A731-7DC00E043C54}"/>
+    <hyperlink ref="K94" r:id="rId7" xr:uid="{F2F4EE29-85CF-B647-824A-A69C0D2C5370}"/>
+    <hyperlink ref="K96" r:id="rId8" xr:uid="{B454BB5C-EB56-3B49-A303-231AC872D0FC}"/>
+    <hyperlink ref="K98" r:id="rId9" xr:uid="{9C6CCE03-A7EF-9F44-A612-66E6ECD21EA1}"/>
+    <hyperlink ref="K100" r:id="rId10" xr:uid="{071AD89F-117A-C94A-8836-9639B8D15562}"/>
+    <hyperlink ref="K102" r:id="rId11" xr:uid="{3F998152-456D-2142-94AE-74F27A2A1F8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_gasoline.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_gasoline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B043BA4-6603-9342-B3D2-324125ECC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FB7B7-179C-1949-9146-C9B97D917B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="51">
   <si>
     <t>Name:</t>
   </si>
@@ -170,59 +170,29 @@
     <t>IEA</t>
   </si>
   <si>
-    <t>EP.PMP.SGAS.CD</t>
-  </si>
-  <si>
-    <t>World Bank. Pump price for gasoline (US$ per liter)</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/indicator/EP.PMP.SGAS.CD</t>
-  </si>
-  <si>
-    <t>USD1995/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD1998/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2000/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2002/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2004/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2006/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2008/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2010/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2012/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2014/litre_gasoline</t>
-  </si>
-  <si>
-    <t>USD2016/litre_gasoline</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>CHF2010/lge</t>
+  </si>
+  <si>
+    <t>SFOE</t>
+  </si>
+  <si>
+    <t>https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/</t>
+  </si>
+  <si>
+    <t>Table 39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +218,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -306,7 +269,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -646,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111:G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,7 +627,7 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -809,10 +773,10 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -2994,6 +2958,21 @@
       <c r="E76">
         <v>1990</v>
       </c>
+      <c r="G76">
+        <v>0.85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L76" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -3011,6 +2990,21 @@
       <c r="E77">
         <v>1991</v>
       </c>
+      <c r="G77">
+        <v>0.83</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -3028,6 +3022,21 @@
       <c r="E78">
         <v>1992</v>
       </c>
+      <c r="G78">
+        <v>0.8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L78" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -3045,6 +3054,21 @@
       <c r="E79">
         <v>1993</v>
       </c>
+      <c r="G79">
+        <v>0.92</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
+        <v>48</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L79" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -3062,6 +3086,21 @@
       <c r="E80">
         <v>1994</v>
       </c>
+      <c r="G80">
+        <v>0.93</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L80" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -3080,19 +3119,19 @@
         <v>1995</v>
       </c>
       <c r="G81">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
         <v>48</v>
       </c>
-      <c r="J81" t="s">
-        <v>46</v>
-      </c>
       <c r="K81" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L81" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3111,6 +3150,21 @@
       <c r="E82">
         <v>1996</v>
       </c>
+      <c r="G82">
+        <v>0.96</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L82" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -3128,6 +3182,21 @@
       <c r="E83">
         <v>1997</v>
       </c>
+      <c r="G83">
+        <v>1.02</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L83" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -3146,19 +3215,19 @@
         <v>1998</v>
       </c>
       <c r="G84">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L84" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3177,6 +3246,21 @@
       <c r="E85">
         <v>1999</v>
       </c>
+      <c r="G85">
+        <v>1.04</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L85" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -3195,19 +3279,19 @@
         <v>2000</v>
       </c>
       <c r="G86">
-        <v>0.78</v>
+        <v>1.21</v>
       </c>
       <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L86" t="s">
         <v>50</v>
-      </c>
-      <c r="J86" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L86" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3226,6 +3310,21 @@
       <c r="E87">
         <v>2001</v>
       </c>
+      <c r="G87">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L87" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -3244,19 +3343,19 @@
         <v>2002</v>
       </c>
       <c r="G88">
-        <v>0.89</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H88" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L88" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3275,6 +3374,21 @@
       <c r="E89">
         <v>2003</v>
       </c>
+      <c r="G89">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L89" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -3293,19 +3407,19 @@
         <v>2004</v>
       </c>
       <c r="G90">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="H90" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L90" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3324,6 +3438,21 @@
       <c r="E91">
         <v>2005</v>
       </c>
+      <c r="G91">
+        <v>1.34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="J91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L91" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -3342,19 +3471,19 @@
         <v>2006</v>
       </c>
       <c r="G92">
-        <v>1.27</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>53</v>
+        <v>1.39</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L92" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3373,6 +3502,21 @@
       <c r="E93">
         <v>2007</v>
       </c>
+      <c r="G93">
+        <v>1.39</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="J93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L93" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -3391,19 +3535,19 @@
         <v>2008</v>
       </c>
       <c r="G94">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L94" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3422,6 +3566,21 @@
       <c r="E95">
         <v>2009</v>
       </c>
+      <c r="G95">
+        <v>1.26</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L95" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -3440,19 +3599,19 @@
         <v>2010</v>
       </c>
       <c r="G96">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L96" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3471,6 +3630,21 @@
       <c r="E97">
         <v>2011</v>
       </c>
+      <c r="G97">
+        <v>1.44</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L97" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -3489,19 +3663,19 @@
         <v>2012</v>
       </c>
       <c r="G98">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="H98" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L98" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3520,6 +3694,21 @@
       <c r="E99">
         <v>2013</v>
       </c>
+      <c r="G99">
+        <v>1.49</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L99" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -3538,19 +3727,19 @@
         <v>2014</v>
       </c>
       <c r="G100">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="H100" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L100" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3569,6 +3758,21 @@
       <c r="E101">
         <v>2015</v>
       </c>
+      <c r="G101">
+        <v>1.3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L101" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -3587,19 +3791,19 @@
         <v>2016</v>
       </c>
       <c r="G102">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="H102" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L102" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3618,6 +3822,21 @@
       <c r="E103">
         <v>2017</v>
       </c>
+      <c r="G103">
+        <v>1.3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="J103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L103" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -3635,6 +3854,21 @@
       <c r="E104">
         <v>2018</v>
       </c>
+      <c r="G104">
+        <v>1.37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="J104" t="s">
+        <v>48</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L104" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -3652,23 +3886,144 @@
       <c r="E105">
         <v>2019</v>
       </c>
+      <c r="G105">
+        <v>1.34</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="J105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>2020</v>
+      </c>
+      <c r="G106">
+        <v>1.17</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H141" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K81" r:id="rId1" xr:uid="{08964E28-2563-7E43-B165-6E23A840428B}"/>
-    <hyperlink ref="K84" r:id="rId2" xr:uid="{EB091DB2-6CDF-E443-A1B2-0AF08996AF72}"/>
-    <hyperlink ref="K86" r:id="rId3" xr:uid="{4CC4C68E-C22B-DF4D-96A0-E32DE1A182DD}"/>
-    <hyperlink ref="K88" r:id="rId4" xr:uid="{E44AE788-A36E-604F-B0A3-DFD5B4D8BB6E}"/>
-    <hyperlink ref="K90" r:id="rId5" xr:uid="{945255C5-8609-E847-ACD2-5B30781C03AF}"/>
-    <hyperlink ref="K92" r:id="rId6" xr:uid="{BF6898A5-61C2-644F-A731-7DC00E043C54}"/>
-    <hyperlink ref="K94" r:id="rId7" xr:uid="{F2F4EE29-85CF-B647-824A-A69C0D2C5370}"/>
-    <hyperlink ref="K96" r:id="rId8" xr:uid="{B454BB5C-EB56-3B49-A303-231AC872D0FC}"/>
-    <hyperlink ref="K98" r:id="rId9" xr:uid="{9C6CCE03-A7EF-9F44-A612-66E6ECD21EA1}"/>
-    <hyperlink ref="K100" r:id="rId10" xr:uid="{071AD89F-117A-C94A-8836-9639B8D15562}"/>
-    <hyperlink ref="K102" r:id="rId11" xr:uid="{3F998152-456D-2142-94AE-74F27A2A1F8D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>